--- a/ACOBISREM/odk forms/Health Facility Assessment/ODK Form/hf_assessment.xlsx
+++ b/ACOBISREM/odk forms/Health Facility Assessment/ODK Form/hf_assessment.xlsx
@@ -1993,7 +1993,7 @@
     <t>selected (., '99')</t>
   </si>
   <si>
-    <t>selected(.,'99')</t>
+    <t>${sourceOfElec}='99'</t>
   </si>
 </sst>
 </file>
@@ -2385,7 +2385,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O235"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C164" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B164" workbookViewId="0">
       <selection activeCell="G172" sqref="G172"/>
     </sheetView>
   </sheetViews>
